--- a/data_raw/mapping/dummy_coding.xlsx
+++ b/data_raw/mapping/dummy_coding.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoehler/Documents/GitHub/SAE_WS25/data_raw/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA3DFD0-4DB0-0944-AA46-7E1C544F2234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01C5BB0-D713-1547-83C6-1B5C9476DA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20460" yWindow="500" windowWidth="20480" windowHeight="21020" activeTab="2" xr2:uid="{7FD2AEAF-1C3F-0B46-807C-6446EE29808D}"/>
+    <workbookView xWindow="20460" yWindow="500" windowWidth="20480" windowHeight="21020" activeTab="5" xr2:uid="{7FD2AEAF-1C3F-0B46-807C-6446EE29808D}"/>
   </bookViews>
   <sheets>
     <sheet name="ocu_1d_13" sheetId="1" r:id="rId1"/>
     <sheet name="v10_combus" sheetId="2" r:id="rId2"/>
     <sheet name="v06_piso" sheetId="3" r:id="rId3"/>
+    <sheet name="p25_sexo" sheetId="4" r:id="rId4"/>
+    <sheet name="p40_lee" sheetId="5" r:id="rId5"/>
+    <sheet name="urbrur" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029" iterate="1" iterateCount="1000" calcOnSave="0"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
   <si>
     <t>military</t>
   </si>
@@ -218,6 +221,33 @@
   </si>
   <si>
     <t>middle_SES</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>sex_</t>
+  </si>
+  <si>
+    <t>knowing</t>
+  </si>
+  <si>
+    <t>not_knowing</t>
+  </si>
+  <si>
+    <t>read_</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>rural</t>
+  </si>
+  <si>
+    <t>urbrur_</t>
   </si>
 </sst>
 </file>
@@ -921,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC4ABBA-9E71-1343-9D03-A25E6304EE74}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1104,4 +1134,172 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5538FBB9-B53B-CC4C-9AC6-B2EC01445D95}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17365566-193F-CE49-9E25-0F7A7392BE5A}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D176931-716A-A84F-B661-90507DDD041C}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_raw/mapping/dummy_coding.xlsx
+++ b/data_raw/mapping/dummy_coding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoehler/Documents/GitHub/SAE_WS25/data_raw/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01C5BB0-D713-1547-83C6-1B5C9476DA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5529403-B7C9-A54F-ACA5-517342C16BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20460" yWindow="500" windowWidth="20480" windowHeight="21020" activeTab="5" xr2:uid="{7FD2AEAF-1C3F-0B46-807C-6446EE29808D}"/>
+    <workbookView xWindow="8320" yWindow="500" windowWidth="20480" windowHeight="16000" activeTab="5" xr2:uid="{7FD2AEAF-1C3F-0B46-807C-6446EE29808D}"/>
   </bookViews>
   <sheets>
     <sheet name="ocu_1d_13" sheetId="1" r:id="rId1"/>
@@ -1255,7 +1255,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data_raw/mapping/dummy_coding.xlsx
+++ b/data_raw/mapping/dummy_coding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoehler/Documents/GitHub/SAE_WS25/data_raw/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5529403-B7C9-A54F-ACA5-517342C16BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF982710-D0F6-8441-BDB8-CD1C9E8EBB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="500" windowWidth="20480" windowHeight="16000" activeTab="5" xr2:uid="{7FD2AEAF-1C3F-0B46-807C-6446EE29808D}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19580" firstSheet="3" activeTab="10" xr2:uid="{7FD2AEAF-1C3F-0B46-807C-6446EE29808D}"/>
   </bookViews>
   <sheets>
     <sheet name="ocu_1d_13" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,11 @@
     <sheet name="p25_sexo" sheetId="4" r:id="rId4"/>
     <sheet name="p40_lee" sheetId="5" r:id="rId5"/>
     <sheet name="urbrur" sheetId="6" r:id="rId6"/>
+    <sheet name="p30b_caja" sheetId="7" r:id="rId7"/>
+    <sheet name="v04_revoq" sheetId="8" r:id="rId8"/>
+    <sheet name="v18c_auto" sheetId="9" r:id="rId9"/>
+    <sheet name="v18h_calefon" sheetId="10" r:id="rId10"/>
+    <sheet name="v12_cocina" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029" iterate="1" iterateCount="1000" calcOnSave="0"/>
   <extLst>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="77">
   <si>
     <t>military</t>
   </si>
@@ -248,6 +253,30 @@
   </si>
   <si>
     <t>urbrur_</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>not_specified</t>
+  </si>
+  <si>
+    <t>health_insurance_</t>
+  </si>
+  <si>
+    <t>interior_plastered_</t>
+  </si>
+  <si>
+    <t>car_</t>
+  </si>
+  <si>
+    <t>water_heater_</t>
+  </si>
+  <si>
+    <t>kitchen_</t>
   </si>
 </sst>
 </file>
@@ -292,12 +321,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -802,6 +829,125 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB65A301-6C18-2145-A5C8-23E850B6FF11}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F773AF3-78E8-FC48-9A87-3A79A3FFA261}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B442ADB-711E-4248-8C47-DAD69AED98F2}">
   <dimension ref="A1:D9"/>
@@ -1115,19 +1261,19 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1195,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17365566-193F-CE49-9E25-0F7A7392BE5A}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,6 +1391,17 @@
         <v>65</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1254,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D176931-716A-A84F-B661-90507DDD041C}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1302,4 +1459,196 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88669B26-C922-DF45-B435-03EEAA2154BE}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEE4F3D-C55E-EC4C-ABF6-E04FF7166110}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA5B192-F849-8543-B552-C50078CF9FC9}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>